--- a/InputData/bldgs/EoCPwEU/Elast of Component Price wrt E Use.xlsx
+++ b/InputData/bldgs/EoCPwEU/Elast of Component Price wrt E Use.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\bldgs\EoCPwEU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdeet\Documents\analysis\thirdParty\EPS Decarbonization Model\eps-us-2.1.1.2\InputData\bldgs\EoCPwEU\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCB39E5-5C13-428E-BE21-6A3C74724F08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25335" windowHeight="10155"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
@@ -19,19 +20,28 @@
     <sheet name="Lighting" sheetId="11" r:id="rId5"/>
     <sheet name="Other Equipment" sheetId="7" r:id="rId6"/>
     <sheet name="Calculations" sheetId="9" r:id="rId7"/>
-    <sheet name="EoCPwEU" sheetId="10" r:id="rId8"/>
+    <sheet name="Texas Notes" sheetId="12" r:id="rId8"/>
+    <sheet name="EoCPwEU" sheetId="10" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3604" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3615" uniqueCount="327">
   <si>
     <t>Elasticity</t>
   </si>
@@ -1180,11 +1190,44 @@
   <si>
     <t>Elasticity by Fuel (dimensionless)</t>
   </si>
+  <si>
+    <t>EPS is taking data about the cost of different appliances at different efficiencies.</t>
+  </si>
+  <si>
+    <t>Then they divide the %change in price by the %change in appliance efficiency.</t>
+  </si>
+  <si>
+    <t>They call the result "elasticity"</t>
+  </si>
+  <si>
+    <t>So, in this case, elasticity measures how much the efficiency of an appliance impacts its price.</t>
+  </si>
+  <si>
+    <t>a -2 means that if efficiency increases by 1%, then price will increase by 2%</t>
+  </si>
+  <si>
+    <t>a -0.5 means that if efficiency increases by 1%, then price will increase by 0.5%</t>
+  </si>
+  <si>
+    <t>a -1 means that if efficiency increases by 1%, then price will increase by 1%</t>
+  </si>
+  <si>
+    <t>In that case, appliances with lower elasticity mean that you can get a higher effiency appliance for a relatively lower increase in cost (compared to other appliances)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since these numbers have to do with new appliaces and not the existing stock, </t>
+  </si>
+  <si>
+    <t>I assume that Texas consumers buy appliances with  manufacturing, freight, and other economic factors that are similar to other US states because most of these products are not manufactured locally</t>
+  </si>
+  <si>
+    <t>So, no changes made.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -1422,30 +1465,30 @@
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
-    <cellStyle name="Currency 2" xfId="6"/>
-    <cellStyle name="Currency 3" xfId="8"/>
+    <cellStyle name="Currency 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Currency 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3"/>
-    <cellStyle name="Normal 2 2" xfId="14"/>
-    <cellStyle name="Normal 3" xfId="5"/>
-    <cellStyle name="Normal 4" xfId="4"/>
-    <cellStyle name="Normal 5" xfId="11"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 2 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal 5" xfId="11" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="7"/>
-    <cellStyle name="Percent 3" xfId="9"/>
-    <cellStyle name="Percent 4" xfId="12"/>
-    <cellStyle name="Percent 5" xfId="13"/>
-    <cellStyle name="Percent 5 2" xfId="15"/>
+    <cellStyle name="Percent 2" xfId="7" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Percent 3" xfId="9" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Percent 4" xfId="12" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Percent 5" xfId="13" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Percent 5 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1756,10 +1799,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1939,13 +1984,13 @@
     </row>
     <row r="18" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="34"/>
-      <c r="B18" s="54" t="s">
+      <c r="B18" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
     </row>
@@ -2170,13 +2215,13 @@
     <row r="44" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="34"/>
-      <c r="B45" s="54" t="s">
+      <c r="B45" s="55" t="s">
         <v>178</v>
       </c>
-      <c r="C45" s="54"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
     </row>
@@ -2406,21 +2451,21 @@
     <mergeCell ref="B45:F45"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B15" r:id="rId1" location="%21documentDetail;D=EERE-2013-BT-STD-0007-0027"/>
-    <hyperlink ref="F15" r:id="rId2" location="%21documentDetail;D=EERE-2014-BT-STD-0048-0029"/>
-    <hyperlink ref="B8" r:id="rId3"/>
-    <hyperlink ref="D8" r:id="rId4"/>
-    <hyperlink ref="F8" r:id="rId5"/>
-    <hyperlink ref="H8" r:id="rId6"/>
-    <hyperlink ref="D15" r:id="rId7" location="%21documentDetail;D=EERE-2013-BT-STD-0007-0027"/>
-    <hyperlink ref="B23" r:id="rId8"/>
-    <hyperlink ref="D23" r:id="rId9"/>
-    <hyperlink ref="F23" r:id="rId10"/>
-    <hyperlink ref="H29" r:id="rId11"/>
-    <hyperlink ref="F50" r:id="rId12"/>
-    <hyperlink ref="H50" r:id="rId13"/>
-    <hyperlink ref="D56" r:id="rId14"/>
-    <hyperlink ref="B43" r:id="rId15"/>
+    <hyperlink ref="B15" r:id="rId1" location="%21documentDetail;D=EERE-2013-BT-STD-0007-0027" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F15" r:id="rId2" location="%21documentDetail;D=EERE-2014-BT-STD-0048-0029" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="H8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D15" r:id="rId7" location="%21documentDetail;D=EERE-2013-BT-STD-0007-0027" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B23" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D23" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F23" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="H29" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F50" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="H50" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="D56" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B43" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId16"/>
@@ -2428,10 +2473,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3419,7 +3466,7 @@
         <v>0.52764720964020173</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>3</v>
       </c>
@@ -3448,7 +3495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>3</v>
       </c>
@@ -3477,7 +3524,7 @@
         <v>8.1475879637000481E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>3</v>
       </c>
@@ -3622,7 +3669,7 @@
         <v>0.41035985154106824</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>3</v>
       </c>
@@ -3651,7 +3698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>3</v>
       </c>
@@ -3680,7 +3727,7 @@
         <v>9.4368214560023256E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>3</v>
       </c>
@@ -5340,7 +5387,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P154"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6374,7 +6421,7 @@
       </c>
       <c r="P30" s="7"/>
     </row>
-    <row r="31" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -6408,7 +6455,7 @@
       </c>
       <c r="P31" s="7"/>
     </row>
-    <row r="32" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -6442,7 +6489,7 @@
       </c>
       <c r="P32" s="7"/>
     </row>
-    <row r="33" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -6476,7 +6523,7 @@
       </c>
       <c r="P33" s="7"/>
     </row>
-    <row r="34" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -6510,7 +6557,7 @@
       </c>
       <c r="P34" s="7"/>
     </row>
-    <row r="35" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -6544,7 +6591,7 @@
       </c>
       <c r="P35" s="7"/>
     </row>
-    <row r="36" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -6578,7 +6625,7 @@
       </c>
       <c r="P36" s="7"/>
     </row>
-    <row r="37" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -6612,7 +6659,7 @@
       </c>
       <c r="P37" s="7"/>
     </row>
-    <row r="38" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -6646,7 +6693,7 @@
       </c>
       <c r="P38" s="7"/>
     </row>
-    <row r="39" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>21</v>
       </c>
@@ -6680,7 +6727,7 @@
       </c>
       <c r="P39" s="7"/>
     </row>
-    <row r="40" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -6714,7 +6761,7 @@
       </c>
       <c r="P40" s="7"/>
     </row>
-    <row r="41" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -6748,7 +6795,7 @@
       </c>
       <c r="P41" s="7"/>
     </row>
-    <row r="42" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -6782,7 +6829,7 @@
       </c>
       <c r="P42" s="7"/>
     </row>
-    <row r="43" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>21</v>
       </c>
@@ -10563,7 +10610,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U283"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11616,7 +11663,7 @@
         <v>1.3757309941520468</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>88</v>
       </c>
@@ -11648,7 +11695,7 @@
         <v>1.5058479532163742</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>88</v>
       </c>
@@ -11680,7 +11727,7 @@
         <v>1.7251461988304093</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>88</v>
       </c>
@@ -11712,7 +11759,7 @@
         <v>2.0146198830409356</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>88</v>
       </c>
@@ -11744,7 +11791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>88</v>
       </c>
@@ -11776,7 +11823,7 @@
         <v>2.2099447513812154E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>88</v>
       </c>
@@ -11808,7 +11855,7 @@
         <v>3.6832412523020261E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>88</v>
       </c>
@@ -11840,7 +11887,7 @@
         <v>0.14917127071823205</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>88</v>
       </c>
@@ -11872,7 +11919,7 @@
         <v>0.2283609576427256</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>88</v>
       </c>
@@ -11904,7 +11951,7 @@
         <v>0.39779005524861877</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>88</v>
       </c>
@@ -11936,7 +11983,7 @@
         <v>0.64272559852670352</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>88</v>
       </c>
@@ -11968,7 +12015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>88</v>
       </c>
@@ -12000,7 +12047,7 @@
         <v>2.1164021164021165E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>88</v>
       </c>
@@ -19746,7 +19793,7 @@
         <v>1.7020162346163919E-2</v>
       </c>
     </row>
-    <row r="279" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="13" t="s">
         <v>88</v>
       </c>
@@ -19778,7 +19825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" s="13" t="s">
         <v>88</v>
       </c>
@@ -19810,7 +19857,7 @@
         <v>7.9896907216494839E-2</v>
       </c>
     </row>
-    <row r="281" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" s="13" t="s">
         <v>88</v>
       </c>
@@ -19842,7 +19889,7 @@
         <v>0.37181226261530115</v>
       </c>
     </row>
-    <row r="282" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" s="13" t="s">
         <v>88</v>
       </c>
@@ -19874,7 +19921,7 @@
         <v>0.4152197504069452</v>
       </c>
     </row>
-    <row r="283" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" s="13" t="s">
         <v>88</v>
       </c>
@@ -19912,10 +19959,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q81"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -21553,7 +21602,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -21604,7 +21653,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="40" t="s">
         <v>38</v>
       </c>
@@ -21661,7 +21710,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="40" t="s">
         <v>38</v>
       </c>
@@ -21718,7 +21767,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="40" t="s">
         <v>38</v>
       </c>
@@ -21769,7 +21818,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="40" t="s">
         <v>38</v>
       </c>
@@ -21819,7 +21868,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="40" t="s">
         <v>38</v>
       </c>
@@ -21869,7 +21918,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="40" t="s">
         <v>38</v>
       </c>
@@ -21926,7 +21975,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="40" t="s">
         <v>38</v>
       </c>
@@ -21983,7 +22032,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="40" t="s">
         <v>38</v>
       </c>
@@ -22040,7 +22089,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:17" s="40" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="40" t="s">
         <v>38</v>
       </c>
@@ -22097,7 +22146,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:17" s="40" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="40" t="s">
         <v>38</v>
       </c>
@@ -22154,7 +22203,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:17" s="40" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="40" t="s">
         <v>38</v>
       </c>
@@ -22211,7 +22260,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="43" spans="1:17" s="40" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="40" t="s">
         <v>38</v>
       </c>
@@ -24213,7 +24262,7 @@
       <c r="C81" s="40"/>
     </row>
   </sheetData>
-  <sortState ref="A2:Q79">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q79">
     <sortCondition descending="1" ref="B2:B79"/>
     <sortCondition ref="C2:C79"/>
     <sortCondition ref="D2:D79"/>
@@ -24224,7 +24273,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:R270"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -25259,7 +25308,7 @@
         <v>1.2883435582822085</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>178</v>
       </c>
@@ -25291,7 +25340,7 @@
         <v>1.4808282208588956</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>178</v>
       </c>
@@ -25323,7 +25372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>178</v>
       </c>
@@ -25355,7 +25404,7 @@
         <v>2.0469596628537028E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>178</v>
       </c>
@@ -25387,7 +25436,7 @@
         <v>4.0337146297411197E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>178</v>
       </c>
@@ -25419,7 +25468,7 @@
         <v>7.8868151715833834E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>178</v>
       </c>
@@ -25451,7 +25500,7 @@
         <v>0.13726670680313063</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>178</v>
       </c>
@@ -25483,7 +25532,7 @@
         <v>0.2366044551475015</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>178</v>
       </c>
@@ -25515,7 +25564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>178</v>
       </c>
@@ -25547,7 +25596,7 @@
         <v>4.5126353790613718E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>178</v>
       </c>
@@ -25579,7 +25628,7 @@
         <v>1.6245487364620937E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>178</v>
       </c>
@@ -25611,7 +25660,7 @@
         <v>4.4223826714801441E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>178</v>
       </c>
@@ -25643,7 +25692,7 @@
         <v>7.0397111913357402E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>178</v>
       </c>
@@ -32988,10 +33037,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -33103,7 +33154,77 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02DC5571-F182-4442-93CC-961D5E0562D7}">
+  <dimension ref="A1:A14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="52" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="52" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>326</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
@@ -33120,7 +33241,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="54" t="s">
         <v>315</v>
       </c>
       <c r="B1" s="50" t="s">

--- a/InputData/bldgs/EoCPwEU/Elast of Component Price wrt E Use.xlsx
+++ b/InputData/bldgs/EoCPwEU/Elast of Component Price wrt E Use.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdeet\Documents\analysis\thirdParty\EPS Decarbonization Model\eps-us-2.1.1.2\InputData\bldgs\EoCPwEU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\bldgs\EoCPwEU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCB39E5-5C13-428E-BE21-6A3C74724F08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25335" windowHeight="10155"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
@@ -20,28 +19,19 @@
     <sheet name="Lighting" sheetId="11" r:id="rId5"/>
     <sheet name="Other Equipment" sheetId="7" r:id="rId6"/>
     <sheet name="Calculations" sheetId="9" r:id="rId7"/>
-    <sheet name="Texas Notes" sheetId="12" r:id="rId8"/>
-    <sheet name="EoCPwEU" sheetId="10" r:id="rId9"/>
+    <sheet name="EoCPwEU" sheetId="10" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3615" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3604" uniqueCount="316">
   <si>
     <t>Elasticity</t>
   </si>
@@ -1190,44 +1180,11 @@
   <si>
     <t>Elasticity by Fuel (dimensionless)</t>
   </si>
-  <si>
-    <t>EPS is taking data about the cost of different appliances at different efficiencies.</t>
-  </si>
-  <si>
-    <t>Then they divide the %change in price by the %change in appliance efficiency.</t>
-  </si>
-  <si>
-    <t>They call the result "elasticity"</t>
-  </si>
-  <si>
-    <t>So, in this case, elasticity measures how much the efficiency of an appliance impacts its price.</t>
-  </si>
-  <si>
-    <t>a -2 means that if efficiency increases by 1%, then price will increase by 2%</t>
-  </si>
-  <si>
-    <t>a -0.5 means that if efficiency increases by 1%, then price will increase by 0.5%</t>
-  </si>
-  <si>
-    <t>a -1 means that if efficiency increases by 1%, then price will increase by 1%</t>
-  </si>
-  <si>
-    <t>In that case, appliances with lower elasticity mean that you can get a higher effiency appliance for a relatively lower increase in cost (compared to other appliances)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Since these numbers have to do with new appliaces and not the existing stock, </t>
-  </si>
-  <si>
-    <t>I assume that Texas consumers buy appliances with  manufacturing, freight, and other economic factors that are similar to other US states because most of these products are not manufactured locally</t>
-  </si>
-  <si>
-    <t>So, no changes made.</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="8">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -1465,30 +1422,30 @@
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
-    <cellStyle name="Currency 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Currency 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Currency 2" xfId="6"/>
+    <cellStyle name="Currency 3" xfId="8"/>
     <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Normal 2 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Normal 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Normal 5" xfId="11" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal 2 2" xfId="14"/>
+    <cellStyle name="Normal 3" xfId="5"/>
+    <cellStyle name="Normal 4" xfId="4"/>
+    <cellStyle name="Normal 5" xfId="11"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="7" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="Percent 3" xfId="9" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="Percent 4" xfId="12" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="Percent 5" xfId="13" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="Percent 5 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Percent 2" xfId="7"/>
+    <cellStyle name="Percent 3" xfId="9"/>
+    <cellStyle name="Percent 4" xfId="12"/>
+    <cellStyle name="Percent 5" xfId="13"/>
+    <cellStyle name="Percent 5 2" xfId="15"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1799,12 +1756,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1984,13 +1939,13 @@
     </row>
     <row r="18" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="34"/>
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
     </row>
@@ -2215,13 +2170,13 @@
     <row r="44" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="34"/>
-      <c r="B45" s="55" t="s">
+      <c r="B45" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="C45" s="55"/>
-      <c r="D45" s="55"/>
-      <c r="E45" s="55"/>
-      <c r="F45" s="55"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
     </row>
@@ -2451,21 +2406,21 @@
     <mergeCell ref="B45:F45"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B15" r:id="rId1" location="%21documentDetail;D=EERE-2013-BT-STD-0007-0027" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F15" r:id="rId2" location="%21documentDetail;D=EERE-2014-BT-STD-0048-0029" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="H8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D15" r:id="rId7" location="%21documentDetail;D=EERE-2013-BT-STD-0007-0027" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B23" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D23" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="F23" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="H29" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="F50" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="H50" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="D56" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="B43" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B15" r:id="rId1" location="%21documentDetail;D=EERE-2013-BT-STD-0007-0027"/>
+    <hyperlink ref="F15" r:id="rId2" location="%21documentDetail;D=EERE-2014-BT-STD-0048-0029"/>
+    <hyperlink ref="B8" r:id="rId3"/>
+    <hyperlink ref="D8" r:id="rId4"/>
+    <hyperlink ref="F8" r:id="rId5"/>
+    <hyperlink ref="H8" r:id="rId6"/>
+    <hyperlink ref="D15" r:id="rId7" location="%21documentDetail;D=EERE-2013-BT-STD-0007-0027"/>
+    <hyperlink ref="B23" r:id="rId8"/>
+    <hyperlink ref="D23" r:id="rId9"/>
+    <hyperlink ref="F23" r:id="rId10"/>
+    <hyperlink ref="H29" r:id="rId11"/>
+    <hyperlink ref="F50" r:id="rId12"/>
+    <hyperlink ref="H50" r:id="rId13"/>
+    <hyperlink ref="D56" r:id="rId14"/>
+    <hyperlink ref="B43" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId16"/>
@@ -2473,12 +2428,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3466,7 +3419,7 @@
         <v>0.52764720964020173</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A33" s="13" t="s">
         <v>3</v>
       </c>
@@ -3495,7 +3448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A34" s="13" t="s">
         <v>3</v>
       </c>
@@ -3524,7 +3477,7 @@
         <v>8.1475879637000481E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A35" s="13" t="s">
         <v>3</v>
       </c>
@@ -3669,7 +3622,7 @@
         <v>0.41035985154106824</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A40" s="13" t="s">
         <v>3</v>
       </c>
@@ -3698,7 +3651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A41" s="13" t="s">
         <v>3</v>
       </c>
@@ -3727,7 +3680,7 @@
         <v>9.4368214560023256E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A42" s="13" t="s">
         <v>3</v>
       </c>
@@ -5387,7 +5340,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P154"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6421,7 +6374,7 @@
       </c>
       <c r="P30" s="7"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -6455,7 +6408,7 @@
       </c>
       <c r="P31" s="7"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -6489,7 +6442,7 @@
       </c>
       <c r="P32" s="7"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -6523,7 +6476,7 @@
       </c>
       <c r="P33" s="7"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -6557,7 +6510,7 @@
       </c>
       <c r="P34" s="7"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -6591,7 +6544,7 @@
       </c>
       <c r="P35" s="7"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -6625,7 +6578,7 @@
       </c>
       <c r="P36" s="7"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -6659,7 +6612,7 @@
       </c>
       <c r="P37" s="7"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -6693,7 +6646,7 @@
       </c>
       <c r="P38" s="7"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>21</v>
       </c>
@@ -6727,7 +6680,7 @@
       </c>
       <c r="P39" s="7"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -6761,7 +6714,7 @@
       </c>
       <c r="P40" s="7"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -6795,7 +6748,7 @@
       </c>
       <c r="P41" s="7"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -6829,7 +6782,7 @@
       </c>
       <c r="P42" s="7"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>21</v>
       </c>
@@ -10610,7 +10563,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U283"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11663,7 +11616,7 @@
         <v>1.3757309941520468</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A31" s="13" t="s">
         <v>88</v>
       </c>
@@ -11695,7 +11648,7 @@
         <v>1.5058479532163742</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A32" s="13" t="s">
         <v>88</v>
       </c>
@@ -11727,7 +11680,7 @@
         <v>1.7251461988304093</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A33" s="13" t="s">
         <v>88</v>
       </c>
@@ -11759,7 +11712,7 @@
         <v>2.0146198830409356</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>88</v>
       </c>
@@ -11791,7 +11744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A35" s="13" t="s">
         <v>88</v>
       </c>
@@ -11823,7 +11776,7 @@
         <v>2.2099447513812154E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A36" s="13" t="s">
         <v>88</v>
       </c>
@@ -11855,7 +11808,7 @@
         <v>3.6832412523020261E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A37" s="13" t="s">
         <v>88</v>
       </c>
@@ -11887,7 +11840,7 @@
         <v>0.14917127071823205</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A38" s="13" t="s">
         <v>88</v>
       </c>
@@ -11919,7 +11872,7 @@
         <v>0.2283609576427256</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A39" s="13" t="s">
         <v>88</v>
       </c>
@@ -11951,7 +11904,7 @@
         <v>0.39779005524861877</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A40" s="13" t="s">
         <v>88</v>
       </c>
@@ -11983,7 +11936,7 @@
         <v>0.64272559852670352</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A41" s="13" t="s">
         <v>88</v>
       </c>
@@ -12015,7 +11968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A42" s="13" t="s">
         <v>88</v>
       </c>
@@ -12047,7 +12000,7 @@
         <v>2.1164021164021165E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A43" s="13" t="s">
         <v>88</v>
       </c>
@@ -19793,7 +19746,7 @@
         <v>1.7020162346163919E-2</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A279" s="13" t="s">
         <v>88</v>
       </c>
@@ -19825,7 +19778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A280" s="13" t="s">
         <v>88</v>
       </c>
@@ -19857,7 +19810,7 @@
         <v>7.9896907216494839E-2</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A281" s="13" t="s">
         <v>88</v>
       </c>
@@ -19889,7 +19842,7 @@
         <v>0.37181226261530115</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A282" s="13" t="s">
         <v>88</v>
       </c>
@@ -19921,7 +19874,7 @@
         <v>0.4152197504069452</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A283" s="13" t="s">
         <v>88</v>
       </c>
@@ -19959,12 +19912,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q81"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -21602,7 +21553,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -21653,7 +21604,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A32" s="40" t="s">
         <v>38</v>
       </c>
@@ -21710,7 +21661,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A33" s="40" t="s">
         <v>38</v>
       </c>
@@ -21767,7 +21718,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A34" s="40" t="s">
         <v>38</v>
       </c>
@@ -21818,7 +21769,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A35" s="40" t="s">
         <v>38</v>
       </c>
@@ -21868,7 +21819,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A36" s="40" t="s">
         <v>38</v>
       </c>
@@ -21918,7 +21869,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A37" s="40" t="s">
         <v>38</v>
       </c>
@@ -21975,7 +21926,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A38" s="40" t="s">
         <v>38</v>
       </c>
@@ -22032,7 +21983,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A39" s="40" t="s">
         <v>38</v>
       </c>
@@ -22089,7 +22040,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" s="40" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A40" s="40" t="s">
         <v>38</v>
       </c>
@@ -22146,7 +22097,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" s="40" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A41" s="40" t="s">
         <v>38</v>
       </c>
@@ -22203,7 +22154,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" s="40" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A42" s="40" t="s">
         <v>38</v>
       </c>
@@ -22260,7 +22211,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="43" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" s="40" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A43" s="40" t="s">
         <v>38</v>
       </c>
@@ -24262,7 +24213,7 @@
       <c r="C81" s="40"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q79">
+  <sortState ref="A2:Q79">
     <sortCondition descending="1" ref="B2:B79"/>
     <sortCondition ref="C2:C79"/>
     <sortCondition ref="D2:D79"/>
@@ -24273,7 +24224,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R270"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -25308,7 +25259,7 @@
         <v>1.2883435582822085</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A31" s="13" t="s">
         <v>178</v>
       </c>
@@ -25340,7 +25291,7 @@
         <v>1.4808282208588956</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>178</v>
       </c>
@@ -25372,7 +25323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A33" s="13" t="s">
         <v>178</v>
       </c>
@@ -25404,7 +25355,7 @@
         <v>2.0469596628537028E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A34" s="13" t="s">
         <v>178</v>
       </c>
@@ -25436,7 +25387,7 @@
         <v>4.0337146297411197E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A35" s="13" t="s">
         <v>178</v>
       </c>
@@ -25468,7 +25419,7 @@
         <v>7.8868151715833834E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A36" s="13" t="s">
         <v>178</v>
       </c>
@@ -25500,7 +25451,7 @@
         <v>0.13726670680313063</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A37" s="13" t="s">
         <v>178</v>
       </c>
@@ -25532,7 +25483,7 @@
         <v>0.2366044551475015</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A38" s="13" t="s">
         <v>178</v>
       </c>
@@ -25564,7 +25515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A39" s="13" t="s">
         <v>178</v>
       </c>
@@ -25596,7 +25547,7 @@
         <v>4.5126353790613718E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A40" s="13" t="s">
         <v>178</v>
       </c>
@@ -25628,7 +25579,7 @@
         <v>1.6245487364620937E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A41" s="13" t="s">
         <v>178</v>
       </c>
@@ -25660,7 +25611,7 @@
         <v>4.4223826714801441E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A42" s="13" t="s">
         <v>178</v>
       </c>
@@ -25692,7 +25643,7 @@
         <v>7.0397111913357402E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A43" s="13" t="s">
         <v>178</v>
       </c>
@@ -33037,12 +32988,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -33154,77 +33103,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02DC5571-F182-4442-93CC-961D5E0562D7}">
-  <dimension ref="A1:A14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="52" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>326</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
@@ -33241,7 +33120,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="55" t="s">
         <v>315</v>
       </c>
       <c r="B1" s="50" t="s">
